--- a/biology/Botanique/Garcinia_humilis/Garcinia_humilis.xlsx
+++ b/biology/Botanique/Garcinia_humilis/Garcinia_humilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Garcinia humilis est une espèce de plantes à fleurs de la famille des Clusiaceae. C'est un petit arbre originaire des Antilles.
-Aux Antilles françaises, il est connu sous le nom de bois-l'onguent ou abricotier bâtard[1].
+Aux Antilles françaises, il est connu sous le nom de bois-l'onguent ou abricotier bâtard.
 Synonymes :
 (≡) Mammea humilis Vahl (basionyme)
 (=) Rheedia lateriflora L.
@@ -515,9 +527,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Garcinia humilis[2] est un petit arbre de 6-7 mètres, polygame ou dioïque, à tronc droit et branches horizontales[3], à latex jaune-orangé et écorce lisse et noire.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Garcinia humilis est un petit arbre de 6-7 mètres, polygame ou dioïque, à tronc droit et branches horizontales, à latex jaune-orangé et écorce lisse et noire.
 Les feuilles persistantes, ovales-elliptiques, de 15-22 × 7-11 cm sont coriaces, à nervures saillantes, à face inférieure blanchâtre, portées par un gros pétiole noirâtre, élargi à la base.
 Les fleurs blanches, très odorantes sont disposées en fascicules axillaires.  Elles comportent 2 sépales orbiculaires, 4 (-6) pétales blanc ou crèmes, en croix. Les fleurs mâles possèdent de nombreuses étamines libres, les fleurs femelles des staminodes fasciculés et un ovaire globulaire. La floraison a lieu presque toute l'année.
 Le fruit est une baie ellipsoïde, lisse, nettement acuminée, de 6-7 cm de diamètre, jaune d'or, comportant une (ou plusieurs) graine, incluse dans une pulpe blanche.
@@ -549,7 +563,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre est une espèce des Petites et Grandes Antilles et du nord de l'Amérique du Sud (Bolivie, Guyanes).
 Aux Antilles, on le trouve essentiellement dans la forêt sèche semi-décidue de la série xérophile mais aussi sur les falaises mésophiles en zone volcanique et même en forêt hygrophile.
@@ -581,13 +597,15 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fruits comestibles
-Ce Garcinia est cultivé pour son fruit depuis des siècles, dans les vergers du bassin amazonien de la Bolivie[4] et a été introduit récemment dans les Queenslands en Australie où sa culture commerciale a été développée.
+Ce Garcinia est cultivé pour son fruit depuis des siècles, dans les vergers du bassin amazonien de la Bolivie et a été introduit récemment dans les Queenslands en Australie où sa culture commerciale a été développée.
 Son goût est décrit comme rafraîchissant et un peu amer.
 « Résine de Manil »
-Aux Antilles françaises, l'écorce contient une résine épaisse à odeur agréable qui est utilisée pour extraire les épines implantées dans la peau[3].
+Aux Antilles françaises, l'écorce contient une résine épaisse à odeur agréable qui est utilisée pour extraire les épines implantées dans la peau.
 Bois
 Le bois, blanc et dur, s'emploie pour les charpentes et la menuiserie.</t>
         </is>
